--- a/03.crawler/41.MesseFrankfurt/file/2.product_url.xlsx
+++ b/03.crawler/41.MesseFrankfurt/file/2.product_url.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Url</t>
   </si>
@@ -41,112 +41,37 @@
     <t>[Product] Url</t>
   </si>
   <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900.html</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237825_10000100202401.html</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237826_10000100202401.html</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237827_10000100202401.html</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237828_10000100202401.html</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237829_10000100202401.html</t>
+  </si>
+  <si>
     <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/31-incorporated.html</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/312000-heshan-zhengda-automobile-glass-tools-coltd.html</t>
+  </si>
+  <si>
     <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/4a-truck-parts-oy.html</t>
   </si>
   <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926503_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926505_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926506_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926504_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926507_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151725_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151726_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151727_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151728_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151729_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd/mf_2_a4wc0a01gnwl_3930346_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd/mf_2_a4wc0a01gnwl_3930345_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abro-industries-inc.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930377_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930378_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930379_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930380_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930381_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923463_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923464_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923465_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/heze-huaxing-fuel-injection-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930243_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930244_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930245_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930246_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930247_10000100202401.html</t>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/4ebed75a-a6f7-4dbe-9976-82ab6851b067.html</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A11" sqref="$A11:$XFD19706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1152,61 +1077,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1214,256 +1145,38 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C18185">
-    <sortCondition ref="A2:A18185"/>
-    <sortCondition ref="B2:B18185"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
